--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1397043.436209974</v>
+        <v>1394562.516384515</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10500675.58522437</v>
+        <v>10500675.58522438</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.813695076354</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>215.4103037912218</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335563</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851352</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545848</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663268</v>
+        <v>354.0471768951634</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001938</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579936</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913424</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.317792068927</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948107</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>12.31568906354835</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358046</v>
+        <v>16.82824115216692</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719016</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292073</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890426</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184863</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367014</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494644</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649682</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.813695076354</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>158.7520733690582</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851352</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545848</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663268</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001938</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104942</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830083</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302864</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913424</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.317792068927</v>
+        <v>339.953240048089</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310858</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358046</v>
+        <v>68.85017973406129</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719016</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271942</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271152</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292075</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443153</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890426</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>193.9170094420669</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367014</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494644</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649682</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359923</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>312.0094110008747</v>
       </c>
       <c r="H17" t="n">
-        <v>200.0030183185336</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.2924785824567</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T17" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531828</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644158</v>
@@ -1910,7 +1910,7 @@
         <v>295.8358174727499</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762181</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290868</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D19" t="n">
-        <v>74.7201898124932</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085002</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721209</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330907</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860163</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411896</v>
+        <v>22.45713720411901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432819</v>
+        <v>15.03686946432825</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257227</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.65366607045</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998937</v>
+        <v>274.7162491948574</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181088</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0274093258366</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463756</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149638</v>
@@ -2093,7 +2093,7 @@
         <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477343</v>
+        <v>3.974324134332278</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T20" t="n">
-        <v>123.6406557682444</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531828</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644158</v>
@@ -2147,7 +2147,7 @@
         <v>295.8358174727499</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503344</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762181</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290868</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D22" t="n">
-        <v>74.7201898124932</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9383736358148</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721209</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330907</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860163</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411896</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432819</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257227</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.65366607045</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181088</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308718</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463756</v>
+        <v>207.0890643413399</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>337.0264424477343</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.2924785824567</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T23" t="n">
         <v>130.022686933901</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531828</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644158</v>
@@ -2384,7 +2384,7 @@
         <v>295.8358174727499</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503344</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247628</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762181</v>
+        <v>168.3363911711823</v>
       </c>
       <c r="C25" t="n">
-        <v>155.7512320878735</v>
+        <v>93.35153789290872</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124932</v>
+        <v>74.72018981249325</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085002</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721209</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330907</v>
+        <v>92.13052505330911</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860163</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411896</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432819</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257227</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.65366607045</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998937</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181088</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308718</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
         <v>151.814372183318</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463756</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846414</v>
+        <v>90.95618068285746</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>230.7340562419023</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060915</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.95950582245094</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420272</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>99.70874824091575</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>170.2318734253261</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007091</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420275</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D46" t="n">
-        <v>93.13769105450079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>163.106871388384</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2030.638683620889</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.05251817521</v>
+        <v>797.536544276727</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828183</v>
+        <v>797.536544276727</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489663</v>
+        <v>438.9403589382065</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597794</v>
+        <v>438.9403589382065</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644997</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299084</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142731</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>3099.267412142731</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>3099.267412142731</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2752.993721141375</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>2390.046456425287</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.8064544743885</v>
+        <v>418.3126375609368</v>
       </c>
       <c r="C13" t="n">
-        <v>570.3663645112083</v>
+        <v>276.5685218927536</v>
       </c>
       <c r="D13" t="n">
-        <v>447.4417923585964</v>
+        <v>153.6439497401416</v>
       </c>
       <c r="E13" t="n">
-        <v>326.7207660359272</v>
+        <v>153.6439497401416</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0228857977406</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003743</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402574</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361062</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188182</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058535</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075787</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075787</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905037</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290404</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.885950344241</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.660847567004</v>
+        <v>967.167030653553</v>
       </c>
       <c r="X13" t="n">
-        <v>930.8633639287106</v>
+        <v>766.3695470152593</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.2628520449041</v>
+        <v>572.7690351314528</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1627.529684993091</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="C14" t="n">
-        <v>1467.174055327376</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327376</v>
+        <v>827.7935161667914</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="F14" t="n">
-        <v>724.784032458972</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636923</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>3021.735001525324</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2696.158413514933</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2349.884722513577</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.937457797489</v>
+        <v>1518.274920318216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.8040676328879</v>
+        <v>418.3126375609356</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8040676328879</v>
+        <v>276.5685218927525</v>
       </c>
       <c r="D16" t="n">
-        <v>515.8794954802763</v>
+        <v>276.5685218927525</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802763</v>
+        <v>276.5685218927525</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420898</v>
+        <v>207.0228857977411</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003743</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.942556361062</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188182</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058535</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162337</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1522.919586878387</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1295.427165932224</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.202063154988</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X16" t="n">
-        <v>832.4045795166942</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.8040676328879</v>
+        <v>572.7690351314517</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1834.401689310018</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1540.080872577403</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>1256.45687417845</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E17" t="n">
-        <v>945.3103217880025</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="F17" t="n">
-        <v>608.9661172061921</v>
+        <v>604.6150378286239</v>
       </c>
       <c r="G17" t="n">
-        <v>268.535367258985</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5540,13 +5540,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
         <v>2723.310842281942</v>
@@ -5558,7 +5558,7 @@
         <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2146.359829166342</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5592,10 +5592,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872276</v>
+        <v>569.121778987228</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671177</v>
+        <v>474.8272962671181</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625791</v>
+        <v>399.3523570625795</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879832</v>
+        <v>326.0809636879834</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978699</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G19" t="n">
-        <v>160.771579980386</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604094</v>
+        <v>89.19609340604102</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356233</v>
+        <v>975.6272732356241</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454031</v>
+        <v>822.2794225454038</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096701</v>
+        <v>676.1285436096707</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1560.999521934037</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104347</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446359</v>
+        <v>629.8126900199876</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628255</v>
+        <v>293.4684854381771</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156191</v>
@@ -5750,13 +5750,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.716270328116</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3021.827493809749</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2765.406306673976</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2487.279351611659</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2188.455293558376</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1872.957661790361</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,19 +5832,19 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235556</v>
+        <v>569.121778987228</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034459</v>
+        <v>474.8272962671181</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989073</v>
+        <v>399.3523570625795</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879832</v>
+        <v>326.0809636879834</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978699</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G22" t="n">
-        <v>160.771579980386</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604094</v>
+        <v>89.196093406041</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5947,13 +5947,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817311</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096707</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349348</v>
+        <v>973.0946095349361</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531258</v>
       </c>
       <c r="G23" t="n">
-        <v>296.319655005918</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5993,46 +5993,46 @@
         <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844412</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516337</v>
+        <v>1706.866817763032</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575119</v>
+        <v>2253.645634821814</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2756.618105701151</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811633</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124118</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
         <v>405.3192232934467</v>
@@ -6090,28 +6090,28 @@
         <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138545</v>
+        <v>575.9874173775269</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574167</v>
+        <v>481.692934657417</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528781</v>
+        <v>406.2179954528784</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782821</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881689</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.637218370685</v>
+        <v>167.6372183706851</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0617317963399</v>
+        <v>96.06173179633997</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6178,7 +6178,7 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
         <v>1260.298375591414</v>
@@ -6187,10 +6187,10 @@
         <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720301</v>
+        <v>892.1750550720299</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362971</v>
+        <v>746.0241761362969</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,10 +6212,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6230,22 +6230,22 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.89614187084</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6257,7 +6257,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
@@ -6315,37 +6315,37 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,16 +6412,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.20875468258</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.181225561917</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3477.955591919094</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3936.433794428082</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6494,10 +6494,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6564,25 +6564,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6619,10 +6619,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982173</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6707,19 +6707,19 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,13 +6734,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6801,25 +6801,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698006</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257046</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6865,7 +6865,7 @@
         <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158134</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647788</v>
+        <v>543.5641013650704</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368719</v>
+        <v>473.2993530110069</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245362</v>
+        <v>323.1827135986712</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357883</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151996</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.689990688879</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647051</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950185</v>
+        <v>626.5411316214668</v>
       </c>
     </row>
     <row r="38">
@@ -7172,16 +7172,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7202,7 +7202,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7211,7 +7211,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,49 +7254,49 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389139</v>
+        <v>552.4050786964419</v>
       </c>
       <c r="C40" t="n">
-        <v>473.299353011007</v>
+        <v>383.468895768535</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725147</v>
+        <v>332.0236909300427</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639649</v>
+        <v>282.7820319214929</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398979</v>
+        <v>234.5635189974259</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146169</v>
+        <v>165.5321169459883</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>117.9863647376894</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1323.410616184332</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552288</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>976.651827089171</v>
+        <v>886.821369846699</v>
       </c>
       <c r="X40" t="n">
-        <v>847.333710764997</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953103</v>
+        <v>635.3821089528383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,28 +7394,28 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7433,25 +7433,25 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7476,22 +7476,22 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064626</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158134</v>
@@ -7503,19 +7503,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>698.2736995386226</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C43" t="n">
-        <v>628.0089511845591</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D43" t="n">
-        <v>477.8923117722234</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6506527636736</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>978.8956707359725</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.043308938549</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.9221643688624</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7631,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7667,25 +7667,25 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515852</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.5784050866007</v>
+        <v>500.9308303909353</v>
       </c>
       <c r="C46" t="n">
-        <v>769.3136567325372</v>
+        <v>430.6660820368719</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7837,19 +7837,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332018</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.555435342997</v>
+        <v>682.579295221175</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729012</v>
+        <v>184.4039433729005</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938961</v>
+        <v>191.4948909389601</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333074</v>
+        <v>181.0856325333064</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830248</v>
+        <v>179.3553748830238</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383997</v>
+        <v>182.8301554383987</v>
       </c>
       <c r="P8" t="n">
-        <v>190.890803558659</v>
+        <v>190.8908035586582</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266122</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372536</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672278</v>
+        <v>105.9629718672272</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253598</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677707</v>
+        <v>92.30246558677629</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835974</v>
+        <v>106.8829608359733</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798328</v>
+        <v>105.3113487798322</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.6694600530923</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662703</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>339.8144253784338</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>127.49943471853</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.161737372967764e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>306.6874953089258</v>
+        <v>336.8335818149109</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>62.52018570663925</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665437</v>
+        <v>277.8321087236482</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>122.9424413926592</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>29.95440217116362</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104924</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830083</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302864</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.0109854479529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>101.6726602836379</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271149</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443153</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>179.6006718148228</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335563</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579938</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104925</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524936</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717754</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>19.36455202083813</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948107</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115012</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.65072170174351</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.37468217641934</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>25.01703144685962</v>
       </c>
       <c r="H17" t="n">
-        <v>20.70946286306775</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652884</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.052118313402</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.2924785824567</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.382031165656574</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.472688720445149e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>979366.4500965402</v>
+        <v>979366.4500965397</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797674.2682031196</v>
+        <v>797674.2682031192</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797674.2682031195</v>
+        <v>797674.2682031192</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867539.400070298</v>
+        <v>867539.4000702979</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>867539.400070298</v>
+        <v>867539.4000702979</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>927750.6563520193</v>
+        <v>927750.6563520192</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896038.6698343754</v>
+        <v>896038.6698343757</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896038.6698343755</v>
+        <v>896038.6698343758</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340012</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
-        <v>553026.6021190138</v>
+        <v>553026.6021190137</v>
       </c>
       <c r="E2" t="n">
-        <v>492439.5006108582</v>
+        <v>492439.5006108581</v>
       </c>
       <c r="F2" t="n">
         <v>492439.5006108581</v>
@@ -26329,31 +26329,31 @@
         <v>536308.3043414121</v>
       </c>
       <c r="H2" t="n">
-        <v>536308.3043414123</v>
+        <v>536308.3043414124</v>
       </c>
       <c r="I2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="J2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="K2" t="n">
+        <v>554203.1946583916</v>
+      </c>
+      <c r="L2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="M2" t="n">
+        <v>554203.1946583921</v>
+      </c>
+      <c r="N2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>554203.1946583919</v>
+      </c>
+      <c r="P2" t="n">
         <v>554203.1946583915</v>
-      </c>
-      <c r="K2" t="n">
-        <v>554203.1946583914</v>
-      </c>
-      <c r="L2" t="n">
-        <v>554203.1946583918</v>
-      </c>
-      <c r="M2" t="n">
-        <v>554203.1946583918</v>
-      </c>
-      <c r="N2" t="n">
-        <v>554203.1946583915</v>
-      </c>
-      <c r="O2" t="n">
-        <v>554203.1946583912</v>
-      </c>
-      <c r="P2" t="n">
-        <v>554203.1946583912</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552203</v>
+        <v>59764.55367552322</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487413</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179687</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913878</v>
+        <v>439568.9169913874</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367453</v>
+        <v>41244.04987367438</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367455</v>
+        <v>41244.04987367439</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511671</v>
+        <v>78272.21023511667</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511668</v>
+        <v>78272.21023511665</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057473</v>
+        <v>93189.85962057475</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226079</v>
+        <v>93063.7509922608</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226084</v>
+        <v>93063.75099226082</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.7509922608</v>
+        <v>93063.75099226077</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820622</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820647</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56233.19753189115</v>
+        <v>56228.78395402327</v>
       </c>
       <c r="C6" t="n">
-        <v>56233.19753189115</v>
+        <v>56228.78395402315</v>
       </c>
       <c r="D6" t="n">
-        <v>18544.22602023756</v>
+        <v>18539.86827009088</v>
       </c>
       <c r="E6" t="n">
-        <v>-714613.0117912755</v>
+        <v>-714841.7662136725</v>
       </c>
       <c r="F6" t="n">
-        <v>374625.9603723573</v>
+        <v>374397.2059499591</v>
       </c>
       <c r="G6" t="n">
-        <v>339937.3416862065</v>
+        <v>339871.0643146621</v>
       </c>
       <c r="H6" t="n">
-        <v>377517.4509810807</v>
+        <v>377451.1736095363</v>
       </c>
       <c r="I6" t="n">
-        <v>352455.3389061408</v>
+        <v>352455.3389061409</v>
       </c>
       <c r="J6" t="n">
-        <v>346352.0689695277</v>
+        <v>346352.0689695276</v>
       </c>
       <c r="K6" t="n">
-        <v>371761.5019913244</v>
+        <v>371761.5019913247</v>
       </c>
       <c r="L6" t="n">
-        <v>334181.3926964508</v>
+        <v>334181.3926964505</v>
       </c>
       <c r="M6" t="n">
-        <v>176112.7105112113</v>
+        <v>176112.7105112117</v>
       </c>
       <c r="N6" t="n">
-        <v>378280.8105039354</v>
+        <v>378280.8105039351</v>
       </c>
       <c r="O6" t="n">
+        <v>378280.8105039357</v>
+      </c>
+      <c r="P6" t="n">
         <v>378280.8105039352</v>
-      </c>
-      <c r="P6" t="n">
-        <v>378280.810503935</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790554</v>
+        <v>69.78465283790692</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26808,7 +26808,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810296</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712659</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951249</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790554</v>
+        <v>69.78465283790692</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712659</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.2465643780173</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672113</v>
+        <v>84.22861846672103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698753</v>
+        <v>90.8382912698751</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519095</v>
+        <v>84.46220888519078</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990516</v>
+        <v>7.649035050990227</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317065</v>
+        <v>75.62456067317044</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871266</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571915</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W19" t="n">
-        <v>11.49558901075443</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E22" t="n">
-        <v>11.49558901075434</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571915</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571915</v>
+        <v>11.49558901075488</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571915</v>
+        <v>11.495589010755</v>
       </c>
       <c r="C25" t="n">
-        <v>11.49558901075437</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571915</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810504</v>
+        <v>55.47778196371171</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>55.47778196371061</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30393,13 +30393,13 @@
         <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371164</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>45.39291458738717</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,16 +30426,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>97.68472022810494</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>55.47778196371104</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D46" t="n">
-        <v>55.47778196371156</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371078</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413286</v>
+        <v>0.2805413179413341</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366632</v>
+        <v>2.873093772366689</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993308</v>
+        <v>10.8155691599333</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362286</v>
+        <v>23.81059368362333</v>
       </c>
       <c r="K8" t="n">
-        <v>35.6859076720793</v>
+        <v>35.68590767208001</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102625</v>
+        <v>44.27152403102713</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396535</v>
+        <v>49.26060069396632</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356615</v>
+        <v>50.05768871356715</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328706</v>
+        <v>47.268055983288</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661051</v>
+        <v>40.34219219661131</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783667</v>
+        <v>30.29530624783727</v>
       </c>
       <c r="R8" t="n">
-        <v>17.622553563132</v>
+        <v>17.62255356313235</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588032</v>
+        <v>6.392835282588158</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288167</v>
+        <v>1.228069619288191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530628</v>
+        <v>0.02244330543530672</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796459</v>
+        <v>0.1501028381796488</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840264</v>
+        <v>1.449677410840293</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693949</v>
+        <v>5.168014384694051</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906909</v>
+        <v>14.18142647906937</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710536</v>
+        <v>24.23831663710584</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264636</v>
+        <v>32.59140791264701</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665852</v>
+        <v>38.03263579665926</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655623</v>
+        <v>39.03924649655701</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847039</v>
+        <v>35.7132836084711</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449747</v>
+        <v>28.66305863449804</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.1604956244755</v>
+        <v>19.16049562447588</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767841</v>
+        <v>9.319542882768026</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608772</v>
+        <v>2.788094384608827</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189011</v>
+        <v>0.605019773189023</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345127</v>
+        <v>0.009875186722345324</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486821</v>
+        <v>0.1258411772486846</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811011</v>
+        <v>1.118842466811033</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307855</v>
+        <v>3.784387403078625</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481825</v>
+        <v>8.896971231482</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489234</v>
+        <v>14.62045677489263</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477225</v>
+        <v>18.70915102477262</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908205</v>
+        <v>19.72617653908244</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115516</v>
+        <v>19.25713215115554</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875009</v>
+        <v>17.78707839875045</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287696</v>
+        <v>15.21991838287727</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852374</v>
+        <v>10.53748257852394</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338165</v>
+        <v>5.658276933381762</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623385</v>
+        <v>2.193068516233894</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625506</v>
+        <v>0.5376850300625613</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564487</v>
+        <v>0.006864064213564622</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33734,13 +33734,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019282</v>
+        <v>72.49856320019266</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314462</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806104</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546667</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.877217732237</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250203</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019279</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806104</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.877217732237</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707657</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>666.4205505487565</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>858.9893307218371</v>
+        <v>889.1354172278221</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>122.133384248864</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>827.137011779455</v>
+        <v>830.1339441365594</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222296</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
